--- a/Posture.xlsx
+++ b/Posture.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\masterThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesper W Henriksen\Documents\Med10\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE9585-9754-42B9-818B-032A2D6BFC3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE3883-DF20-4985-B4B3-0A0908B05775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="675" windowWidth="21600" windowHeight="11835" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
-    <workbookView minimized="1" xWindow="1125" yWindow="975" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{CCF59A4E-7896-454E-9B00-CB2FFA8902B5}"/>
+    <workbookView xWindow="5760" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{CCF59A4E-7896-454E-9B00-CB2FFA8902B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Posture" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Posture!$B$1:$O$165</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -164,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -255,11 +254,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -278,6 +288,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,30 +662,32 @@
   <dimension ref="A1:P765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O122" sqref="O122"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="2.33203125" customWidth="1"/>
+    <col min="17" max="18" width="1.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -720,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -767,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -814,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -861,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -908,7 +922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -955,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -1284,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -1425,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>4</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -1519,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -1566,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>4</v>
       </c>
@@ -1660,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>1</v>
       </c>
@@ -1708,7 +1722,7 @@
       </c>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>2</v>
       </c>
@@ -1755,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>3</v>
       </c>
@@ -1802,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>4</v>
       </c>
@@ -1849,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>1</v>
       </c>
@@ -1896,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>2</v>
       </c>
@@ -1943,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>4</v>
       </c>
@@ -2037,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>2</v>
       </c>
@@ -2131,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>3</v>
       </c>
@@ -2178,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -2225,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>1</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>2</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>3</v>
       </c>
@@ -2366,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>1</v>
       </c>
@@ -2460,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>2</v>
       </c>
@@ -2507,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>3</v>
       </c>
@@ -2554,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>4</v>
       </c>
@@ -2601,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -2648,7 +2662,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>2</v>
       </c>
@@ -2695,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>3</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>4</v>
       </c>
@@ -2789,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -2836,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -2883,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -2930,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -2977,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>2</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>3</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>4</v>
       </c>
@@ -3165,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>1</v>
       </c>
@@ -3212,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>2</v>
       </c>
@@ -3259,7 +3273,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>3</v>
       </c>
@@ -3306,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>4</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>1</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>2</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>3</v>
       </c>
@@ -3494,7 +3508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>4</v>
       </c>
@@ -3541,7 +3555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>1</v>
       </c>
@@ -3588,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>2</v>
       </c>
@@ -3635,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>3</v>
       </c>
@@ -3682,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>4</v>
       </c>
@@ -3729,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>1</v>
       </c>
@@ -3776,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>2</v>
       </c>
@@ -3823,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>3</v>
       </c>
@@ -3870,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>4</v>
       </c>
@@ -3917,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>1</v>
       </c>
@@ -3964,7 +3978,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>2</v>
       </c>
@@ -4011,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>3</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>4</v>
       </c>
@@ -4105,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>1</v>
       </c>
@@ -4152,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>2</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>3</v>
       </c>
@@ -4246,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>4</v>
       </c>
@@ -4293,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>1</v>
       </c>
@@ -4340,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>2</v>
       </c>
@@ -4387,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>3</v>
       </c>
@@ -4434,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>4</v>
       </c>
@@ -4481,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>1</v>
       </c>
@@ -4528,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>2</v>
       </c>
@@ -4575,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>3</v>
       </c>
@@ -4622,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>4</v>
       </c>
@@ -4669,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -4716,7 +4730,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>2</v>
       </c>
@@ -4763,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>3</v>
       </c>
@@ -4810,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>4</v>
       </c>
@@ -4857,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>1</v>
       </c>
@@ -4904,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>2</v>
       </c>
@@ -4951,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>3</v>
       </c>
@@ -4998,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>4</v>
       </c>
@@ -5045,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>1</v>
       </c>
@@ -5092,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>2</v>
       </c>
@@ -5139,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>3</v>
       </c>
@@ -5186,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>4</v>
       </c>
@@ -5233,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>1</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>2</v>
       </c>
@@ -5327,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>3</v>
       </c>
@@ -5375,7 +5389,7 @@
       </c>
       <c r="P100" s="9"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>4</v>
       </c>
@@ -5422,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>1</v>
       </c>
@@ -5469,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>2</v>
       </c>
@@ -5516,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>3</v>
       </c>
@@ -5563,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>4</v>
       </c>
@@ -5610,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>1</v>
       </c>
@@ -5657,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>2</v>
       </c>
@@ -5702,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>3</v>
       </c>
@@ -5750,7 +5764,7 @@
       </c>
       <c r="P108" s="9"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>4</v>
       </c>
@@ -5797,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>1</v>
       </c>
@@ -5844,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>2</v>
       </c>
@@ -5891,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>3</v>
       </c>
@@ -5938,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>4</v>
       </c>
@@ -5985,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>1</v>
       </c>
@@ -6032,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>2</v>
       </c>
@@ -6079,7 +6093,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>3</v>
       </c>
@@ -6126,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>4</v>
       </c>
@@ -6173,7 +6187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>1</v>
       </c>
@@ -6220,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>2</v>
       </c>
@@ -6267,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>3</v>
       </c>
@@ -6314,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>4</v>
       </c>
@@ -6361,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>1</v>
       </c>
@@ -6371,16 +6385,44 @@
       <c r="C122" s="1">
         <v>31</v>
       </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="1"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J122" s="4">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>2</v>
       </c>
@@ -6390,16 +6432,44 @@
       <c r="C123" s="1">
         <v>31</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="1"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="7">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="4">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>3</v>
       </c>
@@ -6409,16 +6479,44 @@
       <c r="C124" s="1">
         <v>31</v>
       </c>
-      <c r="H124" s="7"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="1"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="7">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>4</v>
       </c>
@@ -6428,16 +6526,44 @@
       <c r="C125" s="1">
         <v>31</v>
       </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="1"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>1</v>
       </c>
@@ -6447,16 +6573,44 @@
       <c r="C126" s="1">
         <v>32</v>
       </c>
-      <c r="H126" s="7"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="1"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="7">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>2</v>
       </c>
@@ -6466,16 +6620,44 @@
       <c r="C127" s="1">
         <v>32</v>
       </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="1"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="7">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="18">
+        <v>0</v>
+      </c>
+      <c r="O127" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>3</v>
       </c>
@@ -6485,16 +6667,44 @@
       <c r="C128" s="1">
         <v>32</v>
       </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="1"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="7">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>4</v>
       </c>
@@ -6504,16 +6714,44 @@
       <c r="C129" s="1">
         <v>32</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="1"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H129" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="7">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>1</v>
       </c>
@@ -6523,16 +6761,44 @@
       <c r="C130" s="1">
         <v>33</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="1"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="7">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>2</v>
       </c>
@@ -6542,16 +6808,44 @@
       <c r="C131" s="1">
         <v>33</v>
       </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="1"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="7">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>3</v>
       </c>
@@ -6561,16 +6855,44 @@
       <c r="C132" s="1">
         <v>33</v>
       </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="1"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="7">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="7">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>4</v>
       </c>
@@ -6580,16 +6902,44 @@
       <c r="C133" s="1">
         <v>33</v>
       </c>
-      <c r="H133" s="7"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="1"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="7">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>1</v>
       </c>
@@ -6599,16 +6949,44 @@
       <c r="C134" s="1">
         <v>34</v>
       </c>
-      <c r="H134" s="7"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="1"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="7">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="7">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>2</v>
       </c>
@@ -6618,16 +6996,44 @@
       <c r="C135" s="1">
         <v>34</v>
       </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="1"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="7">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>3</v>
       </c>
@@ -6637,16 +7043,44 @@
       <c r="C136" s="1">
         <v>34</v>
       </c>
-      <c r="H136" s="7"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="1"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="7">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>4</v>
       </c>
@@ -6656,16 +7090,44 @@
       <c r="C137" s="1">
         <v>34</v>
       </c>
-      <c r="H137" s="7"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="1"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="7">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="7">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>1</v>
       </c>
@@ -6675,16 +7137,44 @@
       <c r="C138" s="1">
         <v>35</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="1"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>0</v>
+      </c>
+      <c r="N138" s="7">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>2</v>
       </c>
@@ -6694,16 +7184,44 @@
       <c r="C139" s="1">
         <v>35</v>
       </c>
-      <c r="H139" s="7"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="1"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="7">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>3</v>
       </c>
@@ -6713,16 +7231,44 @@
       <c r="C140" s="1">
         <v>35</v>
       </c>
-      <c r="H140" s="7"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="1"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="7">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>4</v>
       </c>
@@ -6732,16 +7278,44 @@
       <c r="C141" s="1">
         <v>35</v>
       </c>
-      <c r="H141" s="7"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="1"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>1</v>
       </c>
@@ -6751,16 +7325,44 @@
       <c r="C142" s="1">
         <v>36</v>
       </c>
-      <c r="H142" s="7"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="1"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="7">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>2</v>
       </c>
@@ -6770,16 +7372,44 @@
       <c r="C143" s="1">
         <v>36</v>
       </c>
-      <c r="H143" s="7"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="1"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="7">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="7">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>3</v>
       </c>
@@ -6789,16 +7419,44 @@
       <c r="C144" s="1">
         <v>36</v>
       </c>
-      <c r="H144" s="7"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="1"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="7">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>0</v>
+      </c>
+      <c r="N144" s="7">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>4</v>
       </c>
@@ -6808,16 +7466,42 @@
       <c r="C145" s="1">
         <v>36</v>
       </c>
-      <c r="H145" s="7"/>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="7">
+        <v>0</v>
+      </c>
       <c r="I145" s="1"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="1"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J145" s="4">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>0</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="7">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>1</v>
       </c>
@@ -6827,16 +7511,44 @@
       <c r="C146" s="1">
         <v>37</v>
       </c>
-      <c r="H146" s="7"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="7">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>0</v>
+      </c>
+      <c r="M146" s="1">
+        <v>0</v>
+      </c>
+      <c r="N146" s="7">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>2</v>
       </c>
@@ -6846,16 +7558,44 @@
       <c r="C147" s="1">
         <v>37</v>
       </c>
-      <c r="H147" s="7"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="1"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="7">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+      <c r="M147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147" s="7">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>3</v>
       </c>
@@ -6865,16 +7605,44 @@
       <c r="C148" s="1">
         <v>37</v>
       </c>
-      <c r="H148" s="7"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="7"/>
-      <c r="O148" s="1"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H148" s="7">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="4">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N148" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O148" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>4</v>
       </c>
@@ -6884,16 +7652,44 @@
       <c r="C149" s="1">
         <v>37</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="1"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="7">
+        <v>1</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="4">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>0</v>
+      </c>
+      <c r="M149" s="1">
+        <v>0</v>
+      </c>
+      <c r="N149" s="7">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>1</v>
       </c>
@@ -6903,16 +7699,44 @@
       <c r="C150" s="1">
         <v>38</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="7"/>
-      <c r="O150" s="1"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="7">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="4">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1">
+        <v>0</v>
+      </c>
+      <c r="N150" s="7">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>2</v>
       </c>
@@ -6922,16 +7746,42 @@
       <c r="C151" s="1">
         <v>38</v>
       </c>
-      <c r="H151" s="7"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="4"/>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="7">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="4">
+        <v>0</v>
+      </c>
       <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="1"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L151" s="1">
+        <v>0</v>
+      </c>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+      <c r="N151" s="7">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>3</v>
       </c>
@@ -6941,16 +7791,44 @@
       <c r="C152" s="1">
         <v>38</v>
       </c>
-      <c r="H152" s="7"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="1"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H152" s="7">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="4">
+        <v>0</v>
+      </c>
+      <c r="K152" s="9">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>0</v>
+      </c>
+      <c r="M152" s="1">
+        <v>0</v>
+      </c>
+      <c r="N152" s="7">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>4</v>
       </c>
@@ -6960,16 +7838,44 @@
       <c r="C153" s="1">
         <v>38</v>
       </c>
-      <c r="H153" s="7"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="1"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="7">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="4">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>0</v>
+      </c>
+      <c r="M153" s="1">
+        <v>0</v>
+      </c>
+      <c r="N153" s="7">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>1</v>
       </c>
@@ -6979,16 +7885,44 @@
       <c r="C154" s="1">
         <v>39</v>
       </c>
-      <c r="H154" s="7"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="7"/>
-      <c r="O154" s="1"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="7">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="4">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M154" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N154" s="7">
+        <v>0</v>
+      </c>
+      <c r="O154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>2</v>
       </c>
@@ -6998,16 +7932,44 @@
       <c r="C155" s="1">
         <v>39</v>
       </c>
-      <c r="H155" s="7"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="7"/>
-      <c r="O155" s="1"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="7">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="4">
+        <v>0</v>
+      </c>
+      <c r="K155" s="9">
+        <v>0</v>
+      </c>
+      <c r="L155" s="1">
+        <v>0</v>
+      </c>
+      <c r="M155" s="1">
+        <v>0</v>
+      </c>
+      <c r="N155" s="7">
+        <v>0</v>
+      </c>
+      <c r="O155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>3</v>
       </c>
@@ -7017,16 +7979,44 @@
       <c r="C156" s="1">
         <v>39</v>
       </c>
-      <c r="H156" s="7"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="7"/>
-      <c r="O156" s="1"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="7">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="4">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156" s="7">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>4</v>
       </c>
@@ -7036,16 +8026,44 @@
       <c r="C157" s="1">
         <v>39</v>
       </c>
-      <c r="H157" s="7"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="1"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="7">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="4">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157" s="1">
+        <v>0</v>
+      </c>
+      <c r="M157" s="1">
+        <v>0</v>
+      </c>
+      <c r="N157" s="7">
+        <v>0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>1</v>
       </c>
@@ -7055,16 +8073,44 @@
       <c r="C158" s="1">
         <v>40</v>
       </c>
-      <c r="H158" s="7"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="7"/>
-      <c r="O158" s="1"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="4">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L158" s="1">
+        <v>0</v>
+      </c>
+      <c r="M158" s="1">
+        <v>0</v>
+      </c>
+      <c r="N158" s="7">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>2</v>
       </c>
@@ -7074,16 +8120,44 @@
       <c r="C159" s="1">
         <v>40</v>
       </c>
-      <c r="H159" s="7"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="7"/>
-      <c r="O159" s="1"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J159" s="4">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0</v>
+      </c>
+      <c r="L159" s="1">
+        <v>0</v>
+      </c>
+      <c r="M159" s="1">
+        <v>0</v>
+      </c>
+      <c r="N159" s="7">
+        <v>0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>3</v>
       </c>
@@ -7093,16 +8167,44 @@
       <c r="C160" s="1">
         <v>40</v>
       </c>
-      <c r="H160" s="7"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="1"/>
-    </row>
-    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J160" s="4">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0</v>
+      </c>
+      <c r="L160" s="1">
+        <v>0</v>
+      </c>
+      <c r="M160" s="1">
+        <v>0</v>
+      </c>
+      <c r="N160" s="7">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9">
         <v>4</v>
       </c>
@@ -7112,288 +8214,316 @@
       <c r="C161" s="1">
         <v>40</v>
       </c>
-      <c r="H161" s="7"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="7"/>
-      <c r="O161" s="1"/>
-    </row>
-    <row r="162" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="7">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="4">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0</v>
+      </c>
+      <c r="L161" s="1">
+        <v>0</v>
+      </c>
+      <c r="M161" s="1">
+        <v>0</v>
+      </c>
+      <c r="N161" s="7">
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13"/>
       <c r="B162" s="5"/>
       <c r="C162" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="2">
-        <f>SUBTOTAL(9,D2:D160)/SUBTOTAL(3,D2:D160)</f>
-        <v>0.1275</v>
+        <f t="shared" ref="D162:O162" si="0">SUBTOTAL(9,D2:D160)/SUBTOTAL(3,D2:D160)</f>
+        <v>9.6226415094339629E-2</v>
       </c>
       <c r="E162" s="2">
-        <f>SUBTOTAL(9,E2:E160)/SUBTOTAL(3,E2:E160)</f>
-        <v>0.22500000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.169811320754717</v>
       </c>
       <c r="F162" s="6">
-        <f>SUBTOTAL(9,F2:F160)/SUBTOTAL(3,F2:F160)</f>
-        <v>0.6100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.4924528301886793</v>
       </c>
       <c r="G162" s="6">
-        <f>SUBTOTAL(9,G2:G160)/SUBTOTAL(3,G2:G160)</f>
-        <v>0.47833333333333339</v>
+        <f t="shared" si="0"/>
+        <v>0.37044025157232707</v>
       </c>
       <c r="H162" s="6">
-        <f>SUBTOTAL(9,H2:H160)/SUBTOTAL(3,H2:H160)</f>
-        <v>4.9166666666666671E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13522012578616352</v>
       </c>
       <c r="I162" s="2">
-        <f>SUBTOTAL(9,I2:I160)/SUBTOTAL(3,I2:I160)</f>
-        <v>6.3333333333333325E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.658227848101265E-2</v>
       </c>
       <c r="J162" s="5">
-        <f>SUBTOTAL(9,J2:J160)/SUBTOTAL(3,J2:J160)</f>
-        <v>0.15833333333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.12578616352201258</v>
       </c>
       <c r="K162" s="5">
-        <f>SUBTOTAL(9,K2:K160)/SUBTOTAL(3,K2:K160)</f>
-        <v>0.11680672268907563</v>
+        <f t="shared" si="0"/>
+        <v>9.1719745222929944E-2</v>
       </c>
       <c r="L162" s="5">
-        <f>SUBTOTAL(9,L2:L160)/SUBTOTAL(3,L2:L160)</f>
-        <v>5.6666666666666664E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6100628930817621E-2</v>
       </c>
       <c r="M162" s="5">
-        <f>SUBTOTAL(9,M2:M160)/SUBTOTAL(3,M2:M160)</f>
-        <v>7.0833333333333318E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9748427672955962E-2</v>
       </c>
       <c r="N162" s="5">
-        <f>SUBTOTAL(9,N2:N160)/SUBTOTAL(3,N2:N160)</f>
-        <v>0.02</v>
+        <f t="shared" si="0"/>
+        <v>1.8238993710691823E-2</v>
       </c>
       <c r="O162" s="5">
-        <f>SUBTOTAL(9,O2:O160)/SUBTOTAL(3,O2:O160)</f>
-        <v>5.8333333333333334E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>8.1132075471698109E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="12"/>
       <c r="C163" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="2">
-        <f>SUBTOTAL(7,D1:D159)</f>
-        <v>0.45196403815187969</v>
+        <f t="shared" ref="D163:O163" si="1">SUBTOTAL(7,D1:D159)</f>
+        <v>0.39496611752856092</v>
       </c>
       <c r="E163" s="2">
-        <f>SUBTOTAL(7,E1:E159)</f>
-        <v>0.71880774653968593</v>
+        <f t="shared" si="1"/>
+        <v>0.62977342714378137</v>
       </c>
       <c r="F163" s="2">
-        <f>SUBTOTAL(7,F1:F159)</f>
-        <v>1.3716581040798723</v>
+        <f t="shared" si="1"/>
+        <v>1.2186005073312545</v>
       </c>
       <c r="G163" s="2">
-        <f>SUBTOTAL(7,G1:G159)</f>
-        <v>1.251794539916335</v>
+        <f t="shared" si="1"/>
+        <v>1.1028299939632533</v>
       </c>
       <c r="H163" s="2">
-        <f>SUBTOTAL(7,H1:H159)</f>
-        <v>0.19825008788177811</v>
+        <f t="shared" si="1"/>
+        <v>0.42776899544705627</v>
       </c>
       <c r="I163" s="2">
-        <f>SUBTOTAL(7,I1:I159)</f>
-        <v>0.3428979642786576</v>
+        <f t="shared" si="1"/>
+        <v>0.31498304346960976</v>
       </c>
       <c r="J163" s="2">
-        <f>SUBTOTAL(7,J1:J159)</f>
-        <v>0.85661975715241845</v>
+        <f t="shared" si="1"/>
+        <v>0.74489817370109246</v>
       </c>
       <c r="K163" s="2">
-        <f>SUBTOTAL(7,K1:K159)</f>
-        <v>0.61924765973935192</v>
+        <f t="shared" si="1"/>
+        <v>0.53994695777813051</v>
       </c>
       <c r="L163" s="2">
-        <f>SUBTOTAL(7,L1:L159)</f>
-        <v>0.27952121789155876</v>
+        <f t="shared" si="1"/>
+        <v>0.33406982654322814</v>
       </c>
       <c r="M163" s="2">
-        <f>SUBTOTAL(7,M1:M159)</f>
-        <v>0.29293190744953468</v>
+        <f t="shared" si="1"/>
+        <v>0.26015787361772852</v>
       </c>
       <c r="N163" s="2">
-        <f>SUBTOTAL(7,N1:N159)</f>
-        <v>0.22577300841206335</v>
+        <f t="shared" si="1"/>
+        <v>0.19923695500185351</v>
       </c>
       <c r="O163" s="2">
-        <f>SUBTOTAL(7,O1:O159)</f>
-        <v>0.33629243865772024</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.37866385286396653</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="12"/>
       <c r="B164" s="17"/>
       <c r="C164" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2">
-        <f>SUBTOTAL(9,D5:D163)</f>
+        <f t="shared" ref="D164:O164" si="2">SUBTOTAL(9,D5:D163)</f>
         <v>15.3</v>
       </c>
       <c r="E164" s="2">
-        <f>SUBTOTAL(9,E5:E163)</f>
+        <f t="shared" si="2"/>
         <v>27.000000000000004</v>
       </c>
       <c r="F164" s="2">
-        <f>SUBTOTAL(9,F5:F163)</f>
-        <v>72.300000000000011</v>
+        <f t="shared" si="2"/>
+        <v>77.400000000000006</v>
       </c>
       <c r="G164" s="2">
-        <f>SUBTOTAL(9,G5:G163)</f>
-        <v>55.100000000000009</v>
+        <f t="shared" si="2"/>
+        <v>56.600000000000009</v>
       </c>
       <c r="H164" s="2">
-        <f>SUBTOTAL(9,H5:H163)</f>
-        <v>5.4</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="I164" s="2">
-        <f>SUBTOTAL(9,I5:I163)</f>
-        <v>7.6</v>
+        <f t="shared" si="2"/>
+        <v>12.1</v>
       </c>
       <c r="J164" s="2">
-        <f>SUBTOTAL(9,J5:J163)</f>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K164" s="2">
-        <f>SUBTOTAL(9,K5:K163)</f>
-        <v>13.9</v>
+        <f t="shared" si="2"/>
+        <v>14.4</v>
       </c>
       <c r="L164" s="2">
-        <f>SUBTOTAL(9,L5:L163)</f>
-        <v>6.8</v>
+        <f t="shared" si="2"/>
+        <v>12.100000000000001</v>
       </c>
       <c r="M164" s="2">
-        <f>SUBTOTAL(9,M5:M163)</f>
-        <v>8.4999999999999982</v>
+        <f t="shared" si="2"/>
+        <v>9.4999999999999982</v>
       </c>
       <c r="N164" s="2">
-        <f>SUBTOTAL(9,N5:N163)</f>
-        <v>2.4</v>
+        <f t="shared" si="2"/>
+        <v>2.9</v>
       </c>
       <c r="O164" s="2">
-        <f>SUBTOTAL(9,O5:O163)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12.899999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12"/>
       <c r="C165" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2">
-        <f>SUBTOTAL(10,D4:D162)</f>
-        <v>0.2059451415701416</v>
+        <f t="shared" ref="D165:O165" si="3">SUBTOTAL(10,D4:D162)</f>
+        <v>0.15503267689090278</v>
       </c>
       <c r="E165" s="2">
-        <f>SUBTOTAL(10,E4:E162)</f>
-        <v>0.52082046332046317</v>
+        <f t="shared" si="3"/>
+        <v>0.39419832694318574</v>
       </c>
       <c r="F165" s="2">
-        <f>SUBTOTAL(10,F4:F162)</f>
-        <v>1.8945817245817242</v>
+        <f t="shared" si="3"/>
+        <v>1.4769218368769603</v>
       </c>
       <c r="G165" s="2">
-        <f>SUBTOTAL(10,G4:G162)</f>
-        <v>1.5787612612612614</v>
+        <f t="shared" si="3"/>
+        <v>1.2091804635761589</v>
       </c>
       <c r="H165" s="2">
-        <f>SUBTOTAL(10,H4:H162)</f>
-        <v>3.9632400257400259E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.29158199721157196</v>
       </c>
       <c r="I165" s="2">
-        <f>SUBTOTAL(10,I4:I162)</f>
-        <v>0.11859716859716861</v>
+        <f t="shared" si="3"/>
+        <v>9.9735982339955856E-2</v>
       </c>
       <c r="J165" s="2">
-        <f>SUBTOTAL(10,J4:J162)</f>
-        <v>0.74015122265122257</v>
+        <f t="shared" si="3"/>
+        <v>0.55131404670616935</v>
       </c>
       <c r="K165" s="2">
-        <f>SUBTOTAL(10,K4:K162)</f>
-        <v>0.38681244881244886</v>
+        <f t="shared" si="3"/>
+        <v>0.28964832214765107</v>
       </c>
       <c r="L165" s="2">
-        <f>SUBTOTAL(10,L4:L162)</f>
-        <v>7.8803088803088811E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.11090580341582434</v>
       </c>
       <c r="M165" s="2">
-        <f>SUBTOTAL(10,M4:M162)</f>
-        <v>8.6530727155727169E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.7259933774834441E-2</v>
       </c>
       <c r="N165" s="2">
-        <f>SUBTOTAL(10,N4:N162)</f>
-        <v>5.1428571428571428E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.9434907633321713E-2</v>
       </c>
       <c r="O165" s="2">
-        <f>SUBTOTAL(10,O4:O162)</f>
-        <v>0.11407657657657659</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.14248475078424541</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="C166" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D166" s="16">
-        <f>SUBTOTAL(2,D3:D161)</f>
-        <v>113</v>
+        <f t="shared" ref="D166:O166" si="4">SUBTOTAL(2,D3:D161)</f>
+        <v>153</v>
       </c>
       <c r="E166" s="16">
-        <f>SUBTOTAL(2,E3:E161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="F166" s="16">
-        <f>SUBTOTAL(2,F3:F161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="G166" s="16">
-        <f>SUBTOTAL(2,G3:G161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="H166" s="16">
-        <f>SUBTOTAL(2,H3:H161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="I166" s="16">
-        <f>SUBTOTAL(2,I3:I161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>152</v>
       </c>
       <c r="J166" s="16">
-        <f>SUBTOTAL(2,J3:J161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="K166" s="16">
-        <f>SUBTOTAL(2,K3:K161)</f>
-        <v>112</v>
+        <f t="shared" si="4"/>
+        <v>151</v>
       </c>
       <c r="L166" s="16">
-        <f>SUBTOTAL(2,L3:L161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="M166" s="16">
-        <f>SUBTOTAL(2,M3:M161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="N166" s="16">
-        <f>SUBTOTAL(2,N3:N161)</f>
-        <v>113</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="O166" s="16">
-        <f>SUBTOTAL(2,O3:O161)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -7404,7 +8534,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -7415,7 +8545,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -7426,7 +8556,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -7437,7 +8567,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -7448,7 +8578,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -7459,7 +8589,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -7470,7 +8600,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -7481,7 +8611,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -7492,7 +8622,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -7503,7 +8633,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -7514,7 +8644,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -7525,7 +8655,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -7536,7 +8666,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -7547,7 +8677,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -7558,7 +8688,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -7569,7 +8699,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -7580,7 +8710,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -7591,7 +8721,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -7602,7 +8732,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -7613,7 +8743,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -7624,7 +8754,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -7635,7 +8765,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -7646,7 +8776,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7657,7 +8787,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -7668,7 +8798,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7679,7 +8809,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -7690,7 +8820,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -7701,7 +8831,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -7712,7 +8842,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -7723,7 +8853,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7734,7 +8864,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7745,7 +8875,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7756,7 +8886,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7767,7 +8897,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7778,7 +8908,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7789,7 +8919,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7800,7 +8930,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7811,7 +8941,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7822,7 +8952,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7833,7 +8963,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7844,7 +8974,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7855,7 +8985,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7866,7 +8996,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7877,7 +9007,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7888,7 +9018,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7899,7 +9029,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7910,7 +9040,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7921,7 +9051,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7932,7 +9062,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7943,7 +9073,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7954,7 +9084,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7965,7 +9095,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7976,7 +9106,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7987,7 +9117,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7998,7 +9128,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -8009,7 +9139,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -8020,7 +9150,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -8031,7 +9161,7 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -8042,7 +9172,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8053,7 +9183,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8064,7 +9194,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8075,7 +9205,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8086,7 +9216,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8097,7 +9227,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8108,7 +9238,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8119,7 +9249,7 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8130,7 +9260,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8141,7 +9271,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8152,7 +9282,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8163,7 +9293,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8174,7 +9304,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8185,7 +9315,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8196,7 +9326,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8207,7 +9337,7 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8218,7 +9348,7 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8229,7 +9359,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8240,7 +9370,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8251,7 +9381,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8262,7 +9392,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8273,7 +9403,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8284,7 +9414,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8295,7 +9425,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8306,7 +9436,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8317,7 +9447,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8328,7 +9458,7 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8339,7 +9469,7 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8350,7 +9480,7 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8361,7 +9491,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8372,7 +9502,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8383,7 +9513,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8394,7 +9524,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8405,7 +9535,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -8416,7 +9546,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -8427,7 +9557,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -8438,7 +9568,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -8449,7 +9579,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -8460,7 +9590,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -8471,7 +9601,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -8482,7 +9612,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -8493,7 +9623,7 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -8504,7 +9634,7 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -8515,7 +9645,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -8526,7 +9656,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -8537,7 +9667,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -8548,7 +9678,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -8559,7 +9689,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -8570,7 +9700,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -8581,7 +9711,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -8592,7 +9722,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -8603,7 +9733,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -8614,7 +9744,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -8625,7 +9755,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -8636,7 +9766,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -8647,7 +9777,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -8658,7 +9788,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -8669,7 +9799,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -8680,7 +9810,7 @@
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -8691,7 +9821,7 @@
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -8702,7 +9832,7 @@
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -8713,7 +9843,7 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -8724,7 +9854,7 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -8735,7 +9865,7 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -8746,7 +9876,7 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -8757,7 +9887,7 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -8768,7 +9898,7 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -8779,7 +9909,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -8790,7 +9920,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -8801,7 +9931,7 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -8812,7 +9942,7 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -8823,7 +9953,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -8834,7 +9964,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -8845,7 +9975,7 @@
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -8856,7 +9986,7 @@
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -8867,7 +9997,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -8878,7 +10008,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -8889,7 +10019,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -8900,7 +10030,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -8911,7 +10041,7 @@
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -8922,7 +10052,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -8933,7 +10063,7 @@
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -8944,7 +10074,7 @@
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -8955,7 +10085,7 @@
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -8966,7 +10096,7 @@
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -8977,7 +10107,7 @@
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -8988,7 +10118,7 @@
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -8999,7 +10129,7 @@
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -9010,7 +10140,7 @@
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -9021,7 +10151,7 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -9032,7 +10162,7 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -9043,7 +10173,7 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -9054,7 +10184,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -9065,7 +10195,7 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -9076,7 +10206,7 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -9087,7 +10217,7 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -9098,7 +10228,7 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -9109,7 +10239,7 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -9120,7 +10250,7 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -9131,7 +10261,7 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -9142,7 +10272,7 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -9153,7 +10283,7 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -9164,7 +10294,7 @@
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -9175,7 +10305,7 @@
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -9186,7 +10316,7 @@
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -9197,7 +10327,7 @@
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -9208,7 +10338,7 @@
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -9219,7 +10349,7 @@
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -9230,7 +10360,7 @@
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -9241,7 +10371,7 @@
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -9252,7 +10382,7 @@
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -9263,7 +10393,7 @@
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -9274,7 +10404,7 @@
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -9285,7 +10415,7 @@
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -9296,7 +10426,7 @@
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -9307,7 +10437,7 @@
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -9318,7 +10448,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -9329,7 +10459,7 @@
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -9340,7 +10470,7 @@
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -9351,7 +10481,7 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -9362,7 +10492,7 @@
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -9373,7 +10503,7 @@
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -9384,7 +10514,7 @@
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -9395,7 +10525,7 @@
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -9406,2497 +10536,2497 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
     </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
     </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
     </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
     </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
     </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
@@ -11904,7 +13034,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:O165" xr:uid="{5F3FEC86-0079-47CF-9A6A-AB5D95C66668}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O165">
+    <sortState ref="B3:O165">
       <sortCondition ref="C1:C165"/>
     </sortState>
   </autoFilter>
@@ -11928,7 +13058,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
